--- a/Mahasiswa.xlsx
+++ b/Mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sistem Monitoring Akademik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF5B91-B5BB-4C2A-A9FA-87645D970892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A6E72-3FC9-4ECB-9BEE-31EB0889CDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
   <si>
     <t>nim</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>MichelleAlexandra@gmail.com</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1154,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1176,7 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1197,8 +1201,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>24060121130044</v>
       </c>
@@ -1223,8 +1230,11 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>24060121130045</v>
       </c>
@@ -1249,8 +1259,11 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>24060121130046</v>
       </c>
@@ -1275,8 +1288,11 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24060121130047</v>
       </c>
@@ -1301,8 +1317,11 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>24060121130048</v>
       </c>
@@ -1327,8 +1346,11 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>24060121130049</v>
       </c>
@@ -1353,8 +1375,11 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>24060121130050</v>
       </c>
@@ -1379,8 +1404,11 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>24060121130051</v>
       </c>
@@ -1405,8 +1433,11 @@
       <c r="H9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>24060121130052</v>
       </c>
@@ -1431,8 +1462,11 @@
       <c r="H10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24060121130053</v>
       </c>
@@ -1457,8 +1491,11 @@
       <c r="H11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>24060121130054</v>
       </c>
@@ -1483,8 +1520,11 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24060121130055</v>
       </c>
@@ -1509,8 +1549,11 @@
       <c r="H13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>24060121130056</v>
       </c>
@@ -1535,8 +1578,11 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>24060121130057</v>
       </c>
@@ -1561,8 +1607,11 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>24060121130058</v>
       </c>
@@ -1587,8 +1636,11 @@
       <c r="H16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24060121130059</v>
       </c>
@@ -1613,8 +1665,11 @@
       <c r="H17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>24060121130060</v>
       </c>
@@ -1639,8 +1694,11 @@
       <c r="H18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>24060121130061</v>
       </c>
@@ -1665,8 +1723,11 @@
       <c r="H19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>24060121130062</v>
       </c>
@@ -1691,8 +1752,11 @@
       <c r="H20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>24060121130063</v>
       </c>
@@ -1717,8 +1781,11 @@
       <c r="H21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24060121130064</v>
       </c>
@@ -1743,8 +1810,11 @@
       <c r="H22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24060121130065</v>
       </c>
@@ -1769,8 +1839,11 @@
       <c r="H23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24060121130066</v>
       </c>
@@ -1795,8 +1868,11 @@
       <c r="H24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24060121130067</v>
       </c>
@@ -1821,8 +1897,11 @@
       <c r="H25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24060121130068</v>
       </c>
@@ -1847,8 +1926,11 @@
       <c r="H26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24060121130069</v>
       </c>
@@ -1873,8 +1955,11 @@
       <c r="H27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24060121130070</v>
       </c>
@@ -1899,8 +1984,11 @@
       <c r="H28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24060121130071</v>
       </c>
@@ -1925,8 +2013,11 @@
       <c r="H29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>24060121130072</v>
       </c>
@@ -1951,8 +2042,11 @@
       <c r="H30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>24060121130073</v>
       </c>
@@ -1977,8 +2071,11 @@
       <c r="H31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>24060121130074</v>
       </c>
@@ -2003,8 +2100,11 @@
       <c r="H32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>24060121130075</v>
       </c>
@@ -2029,8 +2129,11 @@
       <c r="H33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>24060121130076</v>
       </c>
@@ -2055,8 +2158,11 @@
       <c r="H34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>24060121130077</v>
       </c>
@@ -2081,8 +2187,11 @@
       <c r="H35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>24060121130078</v>
       </c>
@@ -2107,8 +2216,11 @@
       <c r="H36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>24060121130079</v>
       </c>
@@ -2133,8 +2245,11 @@
       <c r="H37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>24060121130080</v>
       </c>
@@ -2159,8 +2274,11 @@
       <c r="H38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>24060121130081</v>
       </c>
@@ -2185,8 +2303,11 @@
       <c r="H39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>24060121130082</v>
       </c>
@@ -2211,8 +2332,11 @@
       <c r="H40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>24060121130083</v>
       </c>
@@ -2237,8 +2361,11 @@
       <c r="H41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>24060121130084</v>
       </c>
@@ -2262,6 +2389,9 @@
       </c>
       <c r="H42" t="s">
         <v>9</v>
+      </c>
+      <c r="I42" s="3">
+        <v>241</v>
       </c>
     </row>
     <row r="54" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Mahasiswa.xlsx
+++ b/Mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sistem Monitoring Akademik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A6E72-3FC9-4ECB-9BEE-31EB0889CDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF5B91-B5BB-4C2A-A9FA-87645D970892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
   <si>
     <t>nim</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>MichelleAlexandra@gmail.com</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
 </sst>
 </file>
@@ -797,11 +794,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1158,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1172,7 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,11 +1197,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>24060121130044</v>
       </c>
@@ -1230,11 +1223,8 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>24060121130045</v>
       </c>
@@ -1259,11 +1249,8 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>24060121130046</v>
       </c>
@@ -1288,11 +1275,8 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24060121130047</v>
       </c>
@@ -1317,11 +1301,8 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>24060121130048</v>
       </c>
@@ -1346,11 +1327,8 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>24060121130049</v>
       </c>
@@ -1375,11 +1353,8 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>24060121130050</v>
       </c>
@@ -1404,11 +1379,8 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>24060121130051</v>
       </c>
@@ -1433,11 +1405,8 @@
       <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>24060121130052</v>
       </c>
@@ -1462,11 +1431,8 @@
       <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24060121130053</v>
       </c>
@@ -1491,11 +1457,8 @@
       <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>24060121130054</v>
       </c>
@@ -1520,11 +1483,8 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24060121130055</v>
       </c>
@@ -1549,11 +1509,8 @@
       <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>24060121130056</v>
       </c>
@@ -1578,11 +1535,8 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="3">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>24060121130057</v>
       </c>
@@ -1607,11 +1561,8 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="3">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>24060121130058</v>
       </c>
@@ -1636,11 +1587,8 @@
       <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="3">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24060121130059</v>
       </c>
@@ -1665,11 +1613,8 @@
       <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="3">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>24060121130060</v>
       </c>
@@ -1694,11 +1639,8 @@
       <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="3">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>24060121130061</v>
       </c>
@@ -1723,11 +1665,8 @@
       <c r="H19" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="3">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>24060121130062</v>
       </c>
@@ -1752,11 +1691,8 @@
       <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="3">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>24060121130063</v>
       </c>
@@ -1781,11 +1717,8 @@
       <c r="H21" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="3">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24060121130064</v>
       </c>
@@ -1810,11 +1743,8 @@
       <c r="H22" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="3">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24060121130065</v>
       </c>
@@ -1839,11 +1769,8 @@
       <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24060121130066</v>
       </c>
@@ -1868,11 +1795,8 @@
       <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="3">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24060121130067</v>
       </c>
@@ -1897,11 +1821,8 @@
       <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="3">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24060121130068</v>
       </c>
@@ -1926,11 +1847,8 @@
       <c r="H26" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="3">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24060121130069</v>
       </c>
@@ -1955,11 +1873,8 @@
       <c r="H27" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="3">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24060121130070</v>
       </c>
@@ -1984,11 +1899,8 @@
       <c r="H28" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="3">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24060121130071</v>
       </c>
@@ -2013,11 +1925,8 @@
       <c r="H29" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="3">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>24060121130072</v>
       </c>
@@ -2042,11 +1951,8 @@
       <c r="H30" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="3">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>24060121130073</v>
       </c>
@@ -2071,11 +1977,8 @@
       <c r="H31" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>24060121130074</v>
       </c>
@@ -2100,11 +2003,8 @@
       <c r="H32" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>24060121130075</v>
       </c>
@@ -2129,11 +2029,8 @@
       <c r="H33" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="3">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>24060121130076</v>
       </c>
@@ -2158,11 +2055,8 @@
       <c r="H34" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="3">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>24060121130077</v>
       </c>
@@ -2187,11 +2081,8 @@
       <c r="H35" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="3">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>24060121130078</v>
       </c>
@@ -2216,11 +2107,8 @@
       <c r="H36" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="3">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>24060121130079</v>
       </c>
@@ -2245,11 +2133,8 @@
       <c r="H37" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>24060121130080</v>
       </c>
@@ -2274,11 +2159,8 @@
       <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="3">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>24060121130081</v>
       </c>
@@ -2303,11 +2185,8 @@
       <c r="H39" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="3">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>24060121130082</v>
       </c>
@@ -2332,11 +2211,8 @@
       <c r="H40" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="3">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>24060121130083</v>
       </c>
@@ -2361,11 +2237,8 @@
       <c r="H41" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="3">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>24060121130084</v>
       </c>
@@ -2389,9 +2262,6 @@
       </c>
       <c r="H42" t="s">
         <v>9</v>
-      </c>
-      <c r="I42" s="3">
-        <v>241</v>
       </c>
     </row>
     <row r="54" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
